--- a/biology/Histoire de la zoologie et de la botanique/John_Adolph_Shafer/John_Adolph_Shafer.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/John_Adolph_Shafer/John_Adolph_Shafer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">John Adolph Shafer est un botaniste américain, né le 23 février 1863 à Pittsburgh et mort le 1er février 1918.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Diplômé à l’école de pharmacie de Pittsburgh en 1881, il travaille comme pharmacien. Il se marie avec Martha Tisher en 1888. En 1897, il devient gardien au musée du Jardin botanique de New York. Il reçoit, en 1895, un titre honoraire de docteur en pharmacie.
 Shafer réalise de nombreux voyages d’études et d’herborisation dans les Caraïbes et en Amérique du Sud : il visite plusieurs fois Cuba entre 1903 et 1912 mais aussi Montserrat, Porto Rico, Vieques, les Îles Vierges (Saint-Thomas, Saint-John et Sainte-Croix) et Anegada. Son dernier voyage le conduit, en 1916-1917, en Argentine et au Paraguay.
